--- a/public/BulkFormat.xlsx
+++ b/public/BulkFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Share shawky\CXperts-portal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B2490-4CA4-4297-A852-38967C664499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15681C65-3314-4AAA-AA4C-488FE9AA3F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="2640" windowWidth="21600" windowHeight="11835" xr2:uid="{393F6449-7D06-4F82-844C-9C3598695434}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{393F6449-7D06-4F82-844C-9C3598695434}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>birthDate</t>
+  </si>
+  <si>
+    <t>employeeId</t>
   </si>
 </sst>
 </file>
@@ -424,63 +427,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8820F3B4-0EF6-4B1D-A5D1-4B9498A7CF17}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
